--- a/terms/bspoTerms.xlsx
+++ b/terms/bspoTerms.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265DE8D3-4651-884F-A7EE-66C446C0D003}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082C0290-F525-1941-BB20-68C2181D5DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{1ABAFA66-7487-DE42-8DE2-09814E314F1F}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{1ABAFA66-7487-DE42-8DE2-09814E314F1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
